--- a/docentes/Rodriguez Roman Marisol - Estadisticos 20242.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -91,151 +91,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>PAYAN</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
+    <t>LARRACILLA</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>TIZA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>LARRACILLA</t>
-  </si>
-  <si>
-    <t>ALJAVID</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>PIMENTEL</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>BELLO</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TRONCO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MERINO</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>RASCON</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>GAYTAN</t>
-  </si>
-  <si>
-    <t>ISLAS</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
+    <t>YOSHUA RAFAEL</t>
+  </si>
+  <si>
+    <t>DENISSE ARELI</t>
+  </si>
+  <si>
+    <t>ALEYDA MONSERRAT</t>
   </si>
   <si>
     <t>EDUARDO EMER</t>
@@ -244,103 +142,7 @@
     <t>JOACIM ALBERTO</t>
   </si>
   <si>
-    <t>JOHN SMITH</t>
-  </si>
-  <si>
-    <t>ANGEL FERNANDO</t>
-  </si>
-  <si>
-    <t>SANTIAGO ZURIEL</t>
-  </si>
-  <si>
-    <t>ANGEL BRYAN</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>CARLOS ALEXANDER</t>
-  </si>
-  <si>
-    <t>JESUS ANDRES</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOSMAR</t>
-  </si>
-  <si>
-    <t>JUAN ALEXIS</t>
-  </si>
-  <si>
     <t>MONICA</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>HELI SAMUEL</t>
-  </si>
-  <si>
-    <t>JOSMAR RENE</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
-    <t>CARLOS JARE</t>
-  </si>
-  <si>
-    <t>MONTSERRAT</t>
-  </si>
-  <si>
-    <t>KEVIN URIEL</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>CRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>VICTOR ALEXIS</t>
-  </si>
-  <si>
-    <t>JAZMIN ISABEL</t>
-  </si>
-  <si>
-    <t>LIZBETH</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>DIEGO GIOVANI</t>
-  </si>
-  <si>
-    <t>CESAR GUADALUPE</t>
-  </si>
-  <si>
-    <t>VICTOR ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ALESSANDRO CALEB</t>
-  </si>
-  <si>
-    <t>IVANNA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ISA ANGELICA</t>
-  </si>
-  <si>
-    <t>JORGE LUIS</t>
   </si>
 </sst>
 </file>
@@ -767,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -776,13 +578,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -916,16 +712,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>78.13</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -936,18 +735,15 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -962,16 +758,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H4">
+        <v>7.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -985,16 +784,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>93.55</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1008,16 +810,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>97.14</v>
+      </c>
+      <c r="H6">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1076,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1096,18 +901,15 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1134,7 +936,7 @@
         <v>81.81999999999999</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1186,7 +988,7 @@
         <v>97.14</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,22 +1033,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920150</v>
+        <v>24330051920259</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1254,16 +1056,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920384</v>
+        <v>24330051920387</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1277,22 +1079,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920029</v>
+        <v>23330051920312</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1300,22 +1102,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920036</v>
+        <v>22330051920150</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1323,714 +1125,47 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920111</v>
+        <v>24330051920384</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920062</v>
+        <v>23330051920164</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24330051920314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920079</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>24330051920065</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24330051920299</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920078</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>23330051920164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920070</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920074</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920077</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>24330051920338</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920268</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920339</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>24330051920069</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>24330051920076</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920083</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24330051920071</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920063</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920337</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920067</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>24330051920082</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>24330051920080</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>24330051920064</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>24330051920066</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>24330051920334</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>24330051920034</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>24330051920068</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>24330051920081</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>24330051920075</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Rodriguez Roman Marisol - Estadisticos 20242.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -94,6 +94,9 @@
     <t>RUIZ</t>
   </si>
   <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
     <t>NICANOR</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>YOSHUA RAFAEL</t>
+  </si>
+  <si>
+    <t>LUIS AARON</t>
   </si>
   <si>
     <t>DENISSE ARELI</t>
@@ -998,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1039,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1056,30 +1062,30 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920387</v>
+        <v>23330051920313</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920312</v>
+        <v>24330051920387</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1088,13 +1094,13 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1102,7 +1108,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920150</v>
+        <v>23330051920312</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1111,13 +1117,13 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920384</v>
+        <v>22330051920150</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -1134,21 +1140,21 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920164</v>
+        <v>24330051920384</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1157,15 +1163,38 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>23330051920164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
